--- a/_WWP/WWP Succession Transitions.xlsx
+++ b/_WWP/WWP Succession Transitions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18500" yWindow="0" windowWidth="19400" windowHeight="20140" tabRatio="500"/>
+    <workbookView xWindow="23380" yWindow="0" windowWidth="14520" windowHeight="20140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -758,23 +758,23 @@
         <v>15</v>
       </c>
       <c r="C9" s="7">
-        <f>1/C2</f>
+        <f t="shared" ref="C9:G10" si="0">1/C2</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D9" s="7">
-        <f>1/D2</f>
+        <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E9" s="7">
-        <f>1/E2</f>
+        <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F9" s="7">
-        <f>1/F2</f>
+        <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G9" s="7">
-        <f>1/G2</f>
+        <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -783,23 +783,23 @@
         <v>9</v>
       </c>
       <c r="C10" s="7">
-        <f>1/C3</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D10" s="7">
-        <f>1/D3</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="E10" s="7">
-        <f>1/E3</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="F10" s="7">
-        <f>1/F3</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="G10" s="7">
-        <f>1/G3</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
     </row>
@@ -836,15 +836,15 @@
         <v>0.02</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" ref="E12:G12" si="0">E10</f>
+        <f t="shared" ref="E12:G12" si="1">E10</f>
         <v>0.01</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="I12">
@@ -1023,27 +1023,27 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10">
-        <f>C17/$H$17</f>
+        <f t="shared" ref="C21:H21" si="2">C17/$H$17</f>
         <v>0.15</v>
       </c>
       <c r="D21" s="10">
-        <f>D17/$H$17</f>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="E21" s="10">
-        <f>E17/$H$17</f>
+        <f t="shared" si="2"/>
         <v>0.27499999999999997</v>
       </c>
       <c r="F21" s="10">
-        <f>F17/$H$17</f>
+        <f t="shared" si="2"/>
         <v>0.27499999999999997</v>
       </c>
       <c r="G21" s="10">
-        <f>G17/$H$17</f>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="H21">
-        <f>H17/$H$17</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I21" s="8">
@@ -1260,11 +1260,11 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:F31" si="1">SUM(E26:E30)</f>
+        <f t="shared" ref="E31:F31" si="3">SUM(E26:E30)</f>
         <v>1</v>
       </c>
       <c r="F31" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G31">
@@ -1454,7 +1454,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <f t="shared" ref="B43:B47" si="2">1/C43</f>
+        <f t="shared" ref="B43:B47" si="4">1/C43</f>
         <v>45.004500450045008</v>
       </c>
       <c r="C43">
@@ -1486,7 +1486,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35.001750087504377</v>
       </c>
       <c r="C46">
@@ -1518,7 +1518,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.40341106856944</v>
       </c>
       <c r="C47">
